--- a/DataRepo/data/tests/multiple_representations/resolution_handling/prereqs.xlsx
+++ b/DataRepo/data/tests/multiple_representations/resolution_handling/prereqs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/multiple_representations/conflicting_resolutions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/multiple_representations/resolution_handling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0884DB85-3495-D74B-9630-6C579B0234CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B78F69F-F02E-F549-8F95-6BB660ABAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="37400" windowHeight="20800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="37400" windowHeight="20800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -1959,9 +1959,6 @@
     <t>Tracer Row Group</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Mass Number</t>
   </si>
   <si>
@@ -2083,6 +2080,12 @@
   </si>
   <si>
     <t>Exploris240</t>
+  </si>
+  <si>
+    <t>Tracer</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -3372,10 +3375,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3410,44 +3413,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3485,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3496,16 +3499,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3720,34 +3723,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
       <c r="E2">
         <v>30.5</v>
       </c>
       <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3867,22 +3870,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3">
         <v>45356</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +3926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3948,7 +3953,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -3956,30 +3961,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4052,13 +4057,13 @@
         <v>Michael Neinast, polar-HILIC-25-min, Exploris240, 2024-03-08</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="3">
         <v>45359</v>
@@ -4163,7 +4168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4182,7 +4189,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -4196,7 +4203,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>7000</v>
@@ -4367,7 +4374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4385,19 +4394,19 @@
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>32</v>
@@ -4408,13 +4417,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4590,18 +4599,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4642,10 +4651,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/multiple_representations/resolution_handling/prereqs.xlsx
+++ b/DataRepo/data/tests/multiple_representations/resolution_handling/prereqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/multiple_representations/resolution_handling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B78F69F-F02E-F549-8F95-6BB660ABAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46AA9B6-F7E0-6E4B-843C-4EC2749C13ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="37400" windowHeight="20800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,12 +2049,6 @@
     <t>exp011b2_free_plasma_0_M05</t>
   </si>
   <si>
-    <t>240308_exp11b2_free_plasma_negative_cor.xlsx</t>
-  </si>
-  <si>
-    <t>240308_exp11b2_free_plasma_poshighmz_cor.xlsx</t>
-  </si>
-  <si>
     <t>Michael Neinast, polar-HILIC-25-min, Exploris240, 2024-03-08</t>
   </si>
   <si>
@@ -2086,13 +2080,19 @@
   </si>
   <si>
     <t>Sequence</t>
+  </si>
+  <si>
+    <t>poshigh_cor.xlsx</t>
+  </si>
+  <si>
+    <t>negative_cor.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3359,13 +3359,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3373,12 +3373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3403,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -3411,7 +3411,7 @@
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3425,32 +3425,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3475,7 +3475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -3483,7 +3483,7 @@
     <col min="4" max="4" width="123.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -3511,121 +3511,121 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A22" ca="1" si="0">IF(OR(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-",INDIRECT("C" &amp; ROW()),"-min"))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3671,7 +3671,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -3686,7 +3686,7 @@
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -3848,7 +3848,7 @@
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3927,10 +3927,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -3939,7 +3939,7 @@
     <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3953,13 +3953,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3967,13 +3967,13 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3981,10 +3981,10 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -4031,7 +4031,7 @@
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A11" ca="1" si="0">IF(OR(NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),NOT(ISBLANK(INDIRECT("E" &amp; ROW()))),),_xlfn.TEXTJOIN(", ", FALSE, INDIRECT("B" &amp; ROW()), INDIRECT("C" &amp; ROW()), INDIRECT("D" &amp; ROW()), IF(ISBLANK(INDIRECT("E" &amp; ROW())),"",TEXT(INDIRECT("E" &amp; ROW()),"yyyy-mm-dd"))),"")</f>
         <v>Michael Neinast, polar-HILIC-25-min, Exploris240, 2024-03-08</v>
@@ -4063,61 +4063,61 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3">
         <v>45359</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4172,7 +4172,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -4181,7 +4181,7 @@
     <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -4198,7 +4198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>56</v>
       </c>
@@ -4213,115 +4213,115 @@
         <v>water-[18O1][7000]</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="E3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="E5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="E13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="E14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="E15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="E16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
@@ -4378,7 +4378,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -4389,7 +4389,7 @@
     <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>39</v>
       </c>
@@ -4433,115 +4433,115 @@
         <v>water-[18O1]</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="G3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="G4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="G5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="G6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="G7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="G8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="G9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="G10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="G11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="G12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="G13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="G14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="G15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="G16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7">
       <c r="G17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7">
       <c r="G18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7">
       <c r="G19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7">
       <c r="G20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7">
       <c r="G21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
@@ -4591,13 +4591,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4635,13 +4635,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
